--- a/src/assets/newportfoliodata.xlsx
+++ b/src/assets/newportfoliodata.xlsx
@@ -406,7 +406,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/assets/newportfoliodata.xlsx
+++ b/src/assets/newportfoliodata.xlsx
@@ -406,7 +406,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
